--- a/Output/March/productivity_agent/productivity_agent_2022-03-03.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-03.xlsx
@@ -10044,7 +10044,7 @@
         <v>6091</v>
       </c>
       <c r="N29">
-        <v>361</v>
+        <v>451</v>
       </c>
       <c r="O29">
         <v>6091</v>
@@ -10158,7 +10158,7 @@
         <v>4938.648648648648</v>
       </c>
       <c r="AZ29">
-        <v>585.4054054054054</v>
+        <v>731.3513513513514</v>
       </c>
       <c r="BA29">
         <v>959.2125984251969</v>
@@ -10272,7 +10272,7 @@
         <v>1.06482290828992</v>
       </c>
       <c r="CL29">
-        <v>0.6887122416534182</v>
+        <v>0.8604133545310015</v>
       </c>
       <c r="CM29">
         <v>1.199015748031496</v>
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="DA29">
-        <v>1.025650443133269</v>
+        <v>1.036994980948395</v>
       </c>
     </row>
     <row r="30" spans="1:105">
@@ -14165,7 +14165,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>7160</v>
+        <v>7316</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="AZ42">
-        <v>815.180265654649</v>
+        <v>832.9411764705883</v>
       </c>
       <c r="BA42">
         <v>0</v>
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="CL42">
-        <v>0.9590356066525283</v>
+        <v>0.9799307958477509</v>
       </c>
       <c r="CM42">
         <v>0</v>
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="DA42">
-        <v>0.9590356066525283</v>
+        <v>0.9799307958477509</v>
       </c>
     </row>
     <row r="43" spans="1:105">
@@ -18920,7 +18920,7 @@
         <v>1255</v>
       </c>
       <c r="N57">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="O57">
         <v>1107</v>
@@ -19034,7 +19034,7 @@
         <v>561.9402985074627</v>
       </c>
       <c r="AZ57">
-        <v>526.5957446808511</v>
+        <v>530.4255319148937</v>
       </c>
       <c r="BA57">
         <v>442.8</v>
@@ -19148,7 +19148,7 @@
         <v>0.1211600471124327</v>
       </c>
       <c r="CL57">
-        <v>0.6195244055068837</v>
+        <v>0.6240300375469338</v>
       </c>
       <c r="CM57">
         <v>0.5535</v>
@@ -19193,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="DA57">
-        <v>0.3895058386138974</v>
+        <v>0.3902689546711311</v>
       </c>
     </row>
     <row r="58" spans="1:105">
